--- a/docs/09_static_analysis/static_analysis_20210608_v0.0.1_reviewed.xlsx
+++ b/docs/09_static_analysis/static_analysis_20210608_v0.0.1_reviewed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\security\cmu\temp\cmu_project\docs\static_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cmu_project\docs\09_static_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,16 @@
     <sheet name="cppchecker_20210608_v0.0.1" sheetId="1" r:id="rId1"/>
     <sheet name="flawfinder_20210607_v0.0.1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'cppchecker_20210608_v0.0.1'!$C$1:$C$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">flawfinder_20210607_v0.0.1!$B$1:$B$125</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="295">
   <si>
     <t>File</t>
   </si>
@@ -895,6 +899,73 @@
   </si>
   <si>
     <t>Reference</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>no a bug</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>how to fix</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>not a weakness</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>no a bug</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>This code was deleted.</t>
+  </si>
+  <si>
+    <t>This issue is not a bug.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오검출</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">closed </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형 추가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlawFinder</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmu_project\source\LgFaceRecDemoTCP_Jetson_NanoV2\MTCNN_FaceDetection_TensorRT\src\common.cpp</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -902,7 +973,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,8 +1142,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1255,6 +1332,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,7 +1589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1514,6 +1597,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1838,3048 +1927,3221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="108.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>282</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>244</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>244</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>257</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>265</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>170</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
       <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
       <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
       <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>70</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
       <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="1">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="1">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
       <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
       <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="1">
         <v>23</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="1">
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>21</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>43</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>44</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
       <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
       <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
         <v>38</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="1">
         <v>21</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>28</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>43</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>44</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>21</v>
       </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
       <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="1">
         <v>17</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="1">
         <v>31</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="1">
         <v>39</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" s="1">
         <v>39</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="1">
         <v>68</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" s="1">
         <v>129</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="1">
         <v>135</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="1">
         <v>25</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="1">
         <v>82</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="1">
         <v>105</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35" s="1">
         <v>136</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="1">
         <v>173</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="1">
         <v>34</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" s="1">
         <v>34</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="1">
         <v>84</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="1">
         <v>84</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" s="1">
         <v>84</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="1">
         <v>85</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="1">
         <v>85</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" s="1">
         <v>86</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="1">
         <v>86</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D46" s="1">
         <v>86</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="1">
         <v>86</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="1">
         <v>66</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" s="1">
         <v>87</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" s="1">
         <v>36</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D51" s="1">
         <v>36</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D52" s="1">
         <v>89</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D53" s="1">
         <v>56</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" s="1">
         <v>56</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" s="1">
         <v>99</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D56" s="1">
         <v>37</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="1">
         <v>37</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" s="1">
         <v>77</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>92</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>282</v>
       </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
       <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
         <v>9</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>93</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>46</v>
       </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
       <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
         <v>22</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>94</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>9</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>30</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>31</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>95</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>50</v>
       </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
       <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
         <v>9</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>95</v>
       </c>
       <c r="B63" t="s">
         <v>17</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>22</v>
       </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
       <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
         <v>18</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>95</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
       </c>
-      <c r="C64">
-        <v>8</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="D64">
         <v>8</v>
       </c>
       <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
         <v>18</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>99</v>
       </c>
       <c r="B65" t="s">
         <v>100</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>5</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>30</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>31</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>99</v>
       </c>
       <c r="B66" t="s">
         <v>102</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>14</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>66</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>103</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>99</v>
       </c>
       <c r="B67" t="s">
         <v>102</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>15</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>66</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>103</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>99</v>
       </c>
       <c r="B68" t="s">
         <v>102</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>16</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>66</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>103</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>99</v>
       </c>
       <c r="B69" t="s">
         <v>102</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>17</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>66</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>103</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>99</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>212</v>
       </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
       <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
         <v>9</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
       <c r="B71" t="s">
         <v>109</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>215</v>
       </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
       <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
         <v>110</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>99</v>
       </c>
       <c r="B72" t="s">
         <v>112</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>6</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>66</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>113</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>99</v>
       </c>
       <c r="B73" t="s">
         <v>112</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>6</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>66</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>113</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>99</v>
       </c>
       <c r="B74" t="s">
         <v>112</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>181</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>66</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>113</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>99</v>
       </c>
       <c r="B75" t="s">
         <v>112</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>182</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>66</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>113</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>99</v>
       </c>
       <c r="B76" t="s">
         <v>112</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>199</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>66</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>113</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>99</v>
       </c>
       <c r="B77" t="s">
         <v>112</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>246</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>66</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>113</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>99</v>
       </c>
       <c r="B78" t="s">
         <v>112</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>108</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>66</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>67</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>99</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>287</v>
       </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
       <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
         <v>18</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>119</v>
       </c>
       <c r="B80" t="s">
         <v>112</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>34</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>66</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>113</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>119</v>
       </c>
       <c r="B81" t="s">
         <v>112</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>34</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>66</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>113</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>119</v>
       </c>
       <c r="B82" t="s">
         <v>112</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>42</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>66</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>113</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>120</v>
       </c>
       <c r="B83" t="s">
         <v>57</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>39</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>30</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>58</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>120</v>
       </c>
       <c r="B84" t="s">
         <v>121</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>39</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>30</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>61</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>120</v>
       </c>
       <c r="B85" t="s">
         <v>122</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>79</v>
       </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
       <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
         <v>15</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>120</v>
       </c>
       <c r="B86" t="s">
         <v>122</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>141</v>
       </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
       <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
         <v>15</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>120</v>
       </c>
       <c r="B87" t="s">
         <v>122</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>147</v>
       </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
       <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
         <v>15</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>120</v>
       </c>
       <c r="B88" t="s">
         <v>112</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>25</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>66</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>67</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>120</v>
       </c>
       <c r="B89" t="s">
         <v>112</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>93</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>66</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>67</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>120</v>
       </c>
       <c r="B90" t="s">
         <v>112</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>117</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>66</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>67</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>120</v>
       </c>
       <c r="B91" t="s">
         <v>112</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>148</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>66</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>67</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>123</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>34</v>
       </c>
-      <c r="D92" t="s">
-        <v>8</v>
-      </c>
       <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
         <v>9</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>123</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>34</v>
       </c>
-      <c r="D93" t="s">
-        <v>8</v>
-      </c>
       <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
         <v>15</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>123</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>84</v>
       </c>
-      <c r="D94" t="s">
-        <v>8</v>
-      </c>
       <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
         <v>15</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>123</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>84</v>
       </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
       <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
         <v>15</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>123</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>84</v>
       </c>
-      <c r="D96" t="s">
-        <v>8</v>
-      </c>
       <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
         <v>15</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>123</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>85</v>
       </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
       <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
         <v>15</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>123</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>85</v>
       </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
       <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
         <v>15</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>123</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>86</v>
       </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
       <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
         <v>15</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>123</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>86</v>
       </c>
-      <c r="D100" t="s">
-        <v>8</v>
-      </c>
       <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
         <v>15</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>123</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>86</v>
       </c>
-      <c r="D101" t="s">
-        <v>8</v>
-      </c>
       <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
         <v>15</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>123</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>86</v>
       </c>
-      <c r="D102" t="s">
-        <v>8</v>
-      </c>
       <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
         <v>15</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>123</v>
       </c>
       <c r="B103" t="s">
         <v>112</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>66</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>66</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>67</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>123</v>
       </c>
       <c r="B104" t="s">
         <v>112</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>87</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>66</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>67</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>124</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>36</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>30</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>58</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>124</v>
       </c>
       <c r="B106" t="s">
         <v>121</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>36</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>30</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>61</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>124</v>
       </c>
       <c r="B107" t="s">
         <v>125</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>89</v>
       </c>
-      <c r="D107" t="s">
-        <v>8</v>
-      </c>
       <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
         <v>84</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>126</v>
       </c>
       <c r="B108" t="s">
         <v>57</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>57</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>30</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>58</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>126</v>
       </c>
       <c r="B109" t="s">
         <v>121</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>57</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>30</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>61</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>126</v>
       </c>
       <c r="B110" t="s">
         <v>125</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>100</v>
       </c>
-      <c r="D110" t="s">
-        <v>8</v>
-      </c>
       <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
         <v>84</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>127</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>37</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>30</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>58</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>127</v>
       </c>
       <c r="B112" t="s">
         <v>121</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>37</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>30</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>61</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>127</v>
       </c>
       <c r="B113" t="s">
         <v>125</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>77</v>
       </c>
-      <c r="D113" t="s">
-        <v>8</v>
-      </c>
       <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
         <v>84</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>128</v>
       </c>
       <c r="B114" t="s">
         <v>129</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>31</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>30</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>31</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>128</v>
       </c>
       <c r="B115" t="s">
         <v>131</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>31</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>30</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>31</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>128</v>
       </c>
       <c r="B116" t="s">
         <v>133</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>31</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>30</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>31</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>128</v>
       </c>
       <c r="B117" t="s">
         <v>57</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>32</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>30</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>58</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>128</v>
       </c>
       <c r="B118" t="s">
         <v>121</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>32</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>30</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>61</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>128</v>
       </c>
       <c r="B119" t="s">
         <v>17</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>55</v>
       </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
       <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
         <v>18</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>128</v>
       </c>
       <c r="B120" t="s">
         <v>17</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>47</v>
       </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
       <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
         <v>18</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>128</v>
       </c>
       <c r="B121" t="s">
         <v>17</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>40</v>
       </c>
-      <c r="D121" t="s">
-        <v>8</v>
-      </c>
       <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
         <v>18</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>140</v>
       </c>
       <c r="B122" t="s">
         <v>141</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>19</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>30</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>31</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>140</v>
       </c>
       <c r="B123" t="s">
         <v>141</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>19</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>30</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>31</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>140</v>
       </c>
       <c r="B124" t="s">
         <v>141</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>19</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>30</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>31</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>140</v>
       </c>
       <c r="B125" t="s">
         <v>141</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>19</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>30</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>31</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>140</v>
       </c>
       <c r="B126" t="s">
         <v>141</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>21</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>30</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>31</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>140</v>
       </c>
       <c r="B127" t="s">
         <v>141</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>24</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>30</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>31</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>140</v>
       </c>
       <c r="B128" t="s">
         <v>141</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>144</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>30</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>31</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>140</v>
       </c>
       <c r="B129" t="s">
         <v>141</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>144</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>30</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>31</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>140</v>
       </c>
       <c r="B130" t="s">
         <v>17</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>133</v>
       </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
       <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
         <v>18</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>140</v>
       </c>
       <c r="B131" t="s">
         <v>17</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>99</v>
       </c>
-      <c r="D131" t="s">
-        <v>8</v>
-      </c>
       <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
         <v>18</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>140</v>
       </c>
       <c r="B132" t="s">
         <v>17</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>178</v>
       </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
       <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
         <v>18</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>140</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>200</v>
       </c>
-      <c r="D133" t="s">
-        <v>8</v>
-      </c>
       <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
         <v>18</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>140</v>
       </c>
       <c r="B134" t="s">
         <v>17</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>173</v>
       </c>
-      <c r="D134" t="s">
-        <v>8</v>
-      </c>
       <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
         <v>18</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>140</v>
       </c>
       <c r="B135" t="s">
         <v>17</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>36</v>
       </c>
-      <c r="D135" t="s">
-        <v>8</v>
-      </c>
       <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
         <v>18</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>140</v>
       </c>
       <c r="B136" t="s">
         <v>17</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>42</v>
       </c>
-      <c r="D136" t="s">
-        <v>8</v>
-      </c>
       <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
         <v>18</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>140</v>
       </c>
       <c r="B137" t="s">
         <v>17</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>153</v>
       </c>
-      <c r="D137" t="s">
-        <v>8</v>
-      </c>
       <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
         <v>18</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
         <v>17</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>168</v>
       </c>
-      <c r="D138" t="s">
-        <v>8</v>
-      </c>
       <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
         <v>18</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>140</v>
       </c>
       <c r="B139" t="s">
         <v>17</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>117</v>
       </c>
-      <c r="D139" t="s">
-        <v>8</v>
-      </c>
       <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
         <v>18</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>140</v>
       </c>
       <c r="B140" t="s">
         <v>17</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>158</v>
       </c>
-      <c r="D140" t="s">
-        <v>8</v>
-      </c>
       <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
         <v>18</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>17</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>57</v>
       </c>
-      <c r="D141" t="s">
-        <v>8</v>
-      </c>
       <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
         <v>18</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>50</v>
       </c>
-      <c r="D142" t="s">
-        <v>8</v>
-      </c>
       <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
         <v>18</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
       <c r="B143" t="s">
         <v>17</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>81</v>
       </c>
-      <c r="D143" t="s">
-        <v>8</v>
-      </c>
       <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
         <v>18</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>140</v>
       </c>
       <c r="B144" t="s">
         <v>17</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>55</v>
       </c>
-      <c r="D144" t="s">
-        <v>8</v>
-      </c>
       <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
         <v>18</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>163</v>
       </c>
       <c r="B145" t="s">
         <v>164</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>128</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>165</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>166</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>168</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>27</v>
       </c>
-      <c r="D146" t="s">
-        <v>8</v>
-      </c>
       <c r="E146" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" t="s">
         <v>9</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>170</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>33</v>
       </c>
-      <c r="D147" t="s">
-        <v>8</v>
-      </c>
       <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" t="s">
         <v>9</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>171</v>
       </c>
       <c r="B148" t="s">
         <v>17</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>24</v>
       </c>
-      <c r="D148" t="s">
-        <v>8</v>
-      </c>
       <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" t="s">
         <v>18</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>171</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>54</v>
       </c>
-      <c r="D149" t="s">
-        <v>8</v>
-      </c>
       <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
         <v>18</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>174</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>149</v>
       </c>
-      <c r="D150" t="s">
-        <v>8</v>
-      </c>
       <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" t="s">
         <v>18</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D151" s="1">
         <v>6</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D152" s="1">
         <v>29</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D153" s="1">
         <v>25</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D154" s="1">
         <v>20</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="H154" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>183</v>
       </c>
       <c r="B155" t="s">
         <v>41</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>7</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>42</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>43</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>44</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>184</v>
       </c>
     </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G157" t="s">
+        <v>286</v>
+      </c>
+      <c r="H157" t="s">
+        <v>291</v>
+      </c>
+      <c r="I157" t="s">
+        <v>288</v>
+      </c>
+      <c r="J157" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G158">
+        <v>154</v>
+      </c>
+      <c r="H158">
+        <v>110</v>
+      </c>
+      <c r="I158">
+        <v>44</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J159" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="C1:C155"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4887,838 +5149,956 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128:G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="R1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>275</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>243</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>244</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>242</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>245</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>235</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>246</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>235</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>247</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>235</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+    <row r="29" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+    <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
+      <c r="R31" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
+    <row r="33" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
+    <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
+    <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
+      <c r="R36" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
+    <row r="38" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
+    <row r="39" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
+    <row r="40" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>252</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>237</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>253</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>237</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>254</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>238</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>255</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>235</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>256</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>235</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>237</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>258</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>237</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>259</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>238</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>260</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>238</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C80" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>261</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>237</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="1" t="s">
+      <c r="R87" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="1" t="s">
+    <row r="89" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>263</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>237</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>264</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>237</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>265</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>236</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>266</v>
       </c>
       <c r="B99" t="s">
+        <v>285</v>
+      </c>
+      <c r="C99" t="s">
         <v>239</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
+      <c r="R99" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>267</v>
       </c>
       <c r="B102" t="s">
+        <v>285</v>
+      </c>
+      <c r="C102" t="s">
         <v>239</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
+      <c r="R102" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C104" t="s">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>268</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="C105" t="s">
+        <v>280</v>
+      </c>
+      <c r="D105" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C106" t="s">
+      <c r="R105" t="s">
+        <v>281</v>
+      </c>
+      <c r="S105" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C107" t="s">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>269</v>
       </c>
       <c r="B108" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" t="s">
         <v>239</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
+      <c r="R108" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C110" t="s">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>270</v>
       </c>
       <c r="B111" t="s">
+        <v>285</v>
+      </c>
+      <c r="C111" t="s">
         <v>239</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
+      <c r="R111" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C113" t="s">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>271</v>
       </c>
       <c r="B114" t="s">
+        <v>285</v>
+      </c>
+      <c r="C114" t="s">
         <v>239</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C115" t="s">
+      <c r="R114" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C116" t="s">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>272</v>
       </c>
       <c r="B117" t="s">
+        <v>285</v>
+      </c>
+      <c r="C117" t="s">
         <v>239</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C118" t="s">
+      <c r="R117" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C119" t="s">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>273</v>
       </c>
       <c r="B120" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" t="s">
         <v>239</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C121" t="s">
+      <c r="R120" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C122" t="s">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>274</v>
       </c>
       <c r="B123" t="s">
+        <v>285</v>
+      </c>
+      <c r="C123" t="s">
         <v>239</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C124" t="s">
+      <c r="R123" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C125" t="s">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
         <v>222</v>
       </c>
     </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>286</v>
+      </c>
+      <c r="E128" t="s">
+        <v>291</v>
+      </c>
+      <c r="F128" t="s">
+        <v>288</v>
+      </c>
+      <c r="G128" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="129" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D129">
+        <v>31</v>
+      </c>
+      <c r="E129">
+        <v>12</v>
+      </c>
+      <c r="F129">
+        <v>5</v>
+      </c>
+      <c r="G129">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G130" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B1:B125"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>

--- a/docs/09_static_analysis/static_analysis_20210608_v0.0.1_reviewed.xlsx
+++ b/docs/09_static_analysis/static_analysis_20210608_v0.0.1_reviewed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cmu_project\docs\09_static_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\security\cmu\temp\cmu_project\docs\09_static_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,18 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="cppchecker_20210608_v0.0.1" sheetId="1" r:id="rId1"/>
-    <sheet name="flawfinder_20210607_v0.0.1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="flawfinder_20210607_v0.0.1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'cppchecker_20210608_v0.0.1'!$C$1:$C$155</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">flawfinder_20210607_v0.0.1!$B$1:$B$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">flawfinder_20210607_v0.0.1!$B$1:$B$125</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="296">
   <si>
     <t>File</t>
   </si>
@@ -966,6 +967,10 @@
   </si>
   <si>
     <t>cmu_project\source\LgFaceRecDemoTCP_Jetson_NanoV2\MTCNN_FaceDetection_TensorRT\src\common.cpp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1589,7 +1594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1603,6 +1608,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1662,6 +1670,1242 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cppchecker_20210608_v0.0.1'!$H$162</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>number</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cppchecker_20210608_v0.0.1'!$G$163:$G$178</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>constParameter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ctuOneDefinitionRuleViolation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>invalidPointerCast</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>missingOverride</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>noCopyConstructor</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>noExplicitConstructor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>noOperatorEq</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>passedByValue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>postfixOperator</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>uninitMemberVar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>unreadVariable</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>unsignedLessThanZero</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>unusedFunction</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>unusedLabel</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>useInitializationList</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>variableScope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cppchecker_20210608_v0.0.1'!$H$163:$H$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1927,10 +3171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5140,14 +6384,189 @@
         <v>289</v>
       </c>
     </row>
+    <row r="162" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G162" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="163" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G163" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H163" s="5">
+        <f>COUNTIF(F2:F155,G163)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G164" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H164" s="5">
+        <f t="shared" ref="H164:H178" si="0">COUNTIF(F3:F156,G164)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G165" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H165" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G166" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H166" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G167" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H167" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G168" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H168" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G169" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H169" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G170" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H170" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G171" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H171" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G172" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G173" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G174" t="s">
+        <v>22</v>
+      </c>
+      <c r="H174" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G175" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G176" t="s">
+        <v>110</v>
+      </c>
+      <c r="H176" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G177" t="s">
+        <v>103</v>
+      </c>
+      <c r="H177" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G178" t="s">
+        <v>9</v>
+      </c>
+      <c r="H178" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="C1:C155"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <sortState ref="A1:A159">
+    <sortCondition ref="A1:A159"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S130"/>
   <sheetViews>

--- a/docs/09_static_analysis/static_analysis_20210608_v0.0.1_reviewed.xlsx
+++ b/docs/09_static_analysis/static_analysis_20210608_v0.0.1_reviewed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\security\cmu\temp\cmu_project\docs\09_static_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cmu_project1\docs\09_static_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3173,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F169" sqref="F169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
